--- a/similarities/split_global/harmonic_similarity_timestamps_107.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_107.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,378 +484,404 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>jaah_14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj'], ['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab'], ['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.820000', '0:00:08.800000'), ('0:00:52.580000', '0:00:59.020000')]</t>
+          <t>('0:01:08.800000', '0:01:33.270000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:46.750000', '0:00:47.790000'), ('0:00:14.400000', '0:00:16.430000')]</t>
+          <t>('0:01:10.380000', '0:01:30.980000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=0.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=52.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=68.8</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75', 'https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=14.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=70.38</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:06.200000', '0:00:16.360000')]</t>
+          <t>('0:00:55.580000', '0:01:02.320000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:06.060000', '0:01:08.180000')]</t>
+          <t>('0:01:15.800000', '0:01:19.600000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=6.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_8</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A:min/E', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:06.920000', '0:01:08.180000'), ('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:01:00.760000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:17.720000', '0:01:28'), ('0:00:18.320000', '0:00:25.820000')]</t>
+          <t>('0:00:32.520000', '0:00:47.400000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=60.76</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-8#t=32.52</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_20</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:04.300000', '0:01:05.720000'), ('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:00:02.580000', '0:00:07.080000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:08.820000', '0:01:17.920000'), ('0:00:18.260000', '0:00:24.820000')]</t>
+          <t>('0:00:39.040000', '0:00:46.100000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=2.58</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:18.240000', '0:00:29.100000')]</t>
+          <t>('0:00:12.060000', '0:00:17.060000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:06.280000', '0:00:12.060000')]</t>
+          <t>('0:00:24.180000', '0:00:30.020000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=18.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=6.28']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=24.18</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>isophonics_47</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Eb/3', 'F:min', 'Ab:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C', 'D:min', 'F']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:28.578000', '0:00:31.777000')]</t>
+          <t>('0:00:01.302038', '0:00:05.439841')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:11.631519', '0:00:15.172562')]</t>
+          <t>('0:01:00.760000', '0:01:04.360000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=28.578']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-19#t=11.631519']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G']]</t>
+          <t>['F:maj', 'D:7/F#', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
+          <t>['Ab', 'F:7', 'Bb:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:02:23.182222', '0:02:53.495873')]</t>
+          <t>('0:01:01.220000', '0:01:04.380000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:03:16.576000', '0:04:06.376000')]</t>
+          <t>('0:01:47.280000', '0:01:52.640000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=143.182222']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=61.22</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=196.576']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=107.28</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D#/G', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C:maj', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:59.500000', '0:01:08.120000')]</t>
+          <t>('0:01:06.040000', '0:01:11.560000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:41.700000', '0:00:57.940000')]</t>
+          <t>('0:00:35.080000', '0:00:43.920000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=66.04</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=41.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=35.08</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -865,325 +891,327 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:03.826054', '0:00:14.054444')]</t>
+          <t>('0:00:11.465419', '0:00:19.151224')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:00:02.500000', '0:00:26.200000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=3.826054']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=11.465419</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=2.5</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min'], ['F:min/G#', 'A#:min', 'F:min/G#']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:43.680000', '0:00:45.800000'), ('0:01:37.760000', '0:01:49.380000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:20.200000', '0:01:26.860000'), ('0:00:26.200000', '0:00:33.960000')]</t>
+          <t>('0:02:18.800000', '0:02:24.460000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=97.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=26.2']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:47.680000', '0:00:51.980000')]</t>
+          <t>('0:00:42.150000', '0:01:07.840000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:22.500000', '0:01:30.740000')]</t>
+          <t>('0:00:55.640000', '0:01:02.520000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=82.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=55.64</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['G', 'G:7', 'C', 'G']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:18.420000', '0:00:24.340000')]</t>
+          <t>('0:00:58.265237', '0:01:08.830317')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
+          <t>('0:01:00.800000', '0:01:10.540000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=58.265237</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=60.8</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['A:min', 'E:maj/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab', 'Eb/3']]</t>
+          <t>['F#:min', 'C#', 'F#:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:58.400000', '0:02:01.720000')]</t>
+          <t>('0:00:10.760000', '0:00:16.080000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:26.923922', '0:01:32.322562')]</t>
+          <t>('0:00:03.744784', '0:00:06.774988')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['A', 'D', 'A/3']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
+          <t>('0:00:56.720000', '0:00:58.880000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
+          <t>('0:00:13.527000', '0:00:17.058000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=72.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=15.26']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>jaah_26</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>jaah_33</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['A:min7', 'D:7', 'G:maj7']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>['Db:min7', 'Gb:7', 'Cb:maj7']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:08.720000', '0:00:10.480000')]</t>
+          <t>('0:00:28.950000', '0:00:32.300000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:07.100430', '0:01:15.018435')]</t>
+          <t>('0:00:02.190000', '0:00:05.120000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=8.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=28.95</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=67.10043']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-33#t=2.19</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
